--- a/excel/design_calcs.xlsx
+++ b/excel/design_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-checkouts\high-side-switch\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316ACD93-64BF-413E-802D-6672BEAA6D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA59EE-29F4-4AB1-AB04-64439FDF1AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="19800" windowHeight="13758" xr2:uid="{95A4271B-2C38-4CB5-A28C-BF573940900E}"/>
+    <workbookView xWindow="-36880" yWindow="0" windowWidth="19720" windowHeight="12920" xr2:uid="{95A4271B-2C38-4CB5-A28C-BF573940900E}"/>
   </bookViews>
   <sheets>
     <sheet name="Design Calculations" sheetId="1" r:id="rId1"/>
@@ -18,60 +18,64 @@
     <sheet name="Temperature Ratings" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A_csense">'Design Calculations'!$B$19</definedName>
-    <definedName name="A_vsense">'Design Calculations'!$B$80</definedName>
-    <definedName name="C_oc_fast">'Design Calculations'!$B$47</definedName>
-    <definedName name="C_oc_slow">'Design Calculations'!$B$60</definedName>
-    <definedName name="C_vsense">'Design Calculations'!$B$78</definedName>
-    <definedName name="CR_oc_fast">'Design Calculations'!$B$49</definedName>
-    <definedName name="CR_oc_slow">'Design Calculations'!$B$62</definedName>
-    <definedName name="f_vsense_c">'Design Calculations'!$B$79</definedName>
-    <definedName name="I_drive_zener">'Design Calculations'!$B$27</definedName>
+    <definedName name="A_csense">'Design Calculations'!$B$26</definedName>
+    <definedName name="A_vsense">'Design Calculations'!$B$87</definedName>
+    <definedName name="C_oc_fast">'Design Calculations'!$B$54</definedName>
+    <definedName name="C_oc_slow">'Design Calculations'!$B$67</definedName>
+    <definedName name="C_vsense">'Design Calculations'!$B$85</definedName>
+    <definedName name="CR_oc_fast">'Design Calculations'!$B$56</definedName>
+    <definedName name="CR_oc_slow">'Design Calculations'!$B$69</definedName>
+    <definedName name="f_vsense_c">'Design Calculations'!$B$86</definedName>
+    <definedName name="I_drive_zener">'Design Calculations'!$B$34</definedName>
     <definedName name="I_load_max">'Design Calculations'!$B$5</definedName>
-    <definedName name="I_oc_fast">'Design Calculations'!$B$50</definedName>
-    <definedName name="I_oc_slow">'Design Calculations'!$B$63</definedName>
-    <definedName name="I_rin_max">'Design Calculations'!$B$13</definedName>
+    <definedName name="I_oc_fast">'Design Calculations'!$B$57</definedName>
+    <definedName name="I_oc_slow">'Design Calculations'!$B$70</definedName>
+    <definedName name="I_rin_max">'Design Calculations'!$B$20</definedName>
+    <definedName name="I_rp_zener">'Design Calculations'!$B$10</definedName>
     <definedName name="L_load_max">'Design Calculations'!$B$6</definedName>
-    <definedName name="N_bits_adc">'Design Calculations'!$B$16</definedName>
-    <definedName name="P_drive_zener">'Design Calculations'!$B$26</definedName>
-    <definedName name="R_csense">'Design Calculations'!$B$9</definedName>
-    <definedName name="R_fault_latch">'Design Calculations'!$B$103</definedName>
-    <definedName name="R_in">'Design Calculations'!$B$12</definedName>
-    <definedName name="R_oc_ref_top">'Design Calculations'!$B$44</definedName>
-    <definedName name="R_oc_slow_f">'Design Calculations'!$B$69</definedName>
-    <definedName name="R_oc_slow_in">'Design Calculations'!$B$65</definedName>
-    <definedName name="R_out">'Design Calculations'!$B$14</definedName>
-    <definedName name="R_uvlo_f">'Design Calculations'!$B$94</definedName>
-    <definedName name="R_uvlo_in">'Design Calculations'!$B$92</definedName>
-    <definedName name="R_uvlo_ref_top">'Design Calculations'!$B$98</definedName>
-    <definedName name="R_vsense_bot">'Design Calculations'!$B$77</definedName>
-    <definedName name="R_vsense_top">'Design Calculations'!$B$76</definedName>
-    <definedName name="T_fault_latch">'Design Calculations'!$B$102</definedName>
-    <definedName name="t_rise_oc_fast">'Design Calculations'!$B$46</definedName>
-    <definedName name="t_rise_oc_slow">'Design Calculations'!$B$59</definedName>
-    <definedName name="V_csense_max">'Design Calculations'!$B$10</definedName>
-    <definedName name="V_drive_be">'Design Calculations'!$B$28</definedName>
-    <definedName name="V_drive_zener">'Design Calculations'!$B$25</definedName>
-    <definedName name="V_in_adc">'Design Calculations'!$B$15</definedName>
-    <definedName name="V_logic_high">'Design Calculations'!$B$22</definedName>
-    <definedName name="V_max_adc">'Design Calculations'!$B$17</definedName>
-    <definedName name="V_oc_fast">'Design Calculations'!$B$51</definedName>
-    <definedName name="V_oc_fast_ref">'Design Calculations'!$B$55</definedName>
-    <definedName name="V_oc_hysteresis">'Design Calculations'!$B$42</definedName>
-    <definedName name="V_oc_slow">'Design Calculations'!$B$64</definedName>
-    <definedName name="V_oc_slow_ref">'Design Calculations'!$B$68</definedName>
-    <definedName name="V_oc_slow_thl">'Design Calculations'!$B$67</definedName>
-    <definedName name="V_oc_slow_tlh">'Design Calculations'!$B$66</definedName>
-    <definedName name="V_oc_top">'Design Calculations'!$B$40</definedName>
+    <definedName name="N_bits_adc">'Design Calculations'!$B$23</definedName>
+    <definedName name="P_drive_zener">'Design Calculations'!$B$33</definedName>
+    <definedName name="P_rp_resistor">'Design Calculations'!$B$12</definedName>
+    <definedName name="R_csense">'Design Calculations'!$B$16</definedName>
+    <definedName name="R_fault_latch">'Design Calculations'!$B$110</definedName>
+    <definedName name="R_in">'Design Calculations'!$B$19</definedName>
+    <definedName name="R_oc_ref_top">'Design Calculations'!$B$51</definedName>
+    <definedName name="R_oc_slow_f">'Design Calculations'!$B$76</definedName>
+    <definedName name="R_oc_slow_in">'Design Calculations'!$B$72</definedName>
+    <definedName name="R_out">'Design Calculations'!$B$21</definedName>
+    <definedName name="R_rp">'Design Calculations'!$B$11</definedName>
+    <definedName name="R_uvlo_f">'Design Calculations'!$B$101</definedName>
+    <definedName name="R_uvlo_in">'Design Calculations'!$B$99</definedName>
+    <definedName name="R_uvlo_ref_top">'Design Calculations'!$B$105</definedName>
+    <definedName name="R_vsense_bot">'Design Calculations'!$B$84</definedName>
+    <definedName name="R_vsense_top">'Design Calculations'!$B$83</definedName>
+    <definedName name="T_fault_latch">'Design Calculations'!$B$109</definedName>
+    <definedName name="t_rise_oc_fast">'Design Calculations'!$B$53</definedName>
+    <definedName name="t_rise_oc_slow">'Design Calculations'!$B$66</definedName>
+    <definedName name="V_csense_max">'Design Calculations'!$B$17</definedName>
+    <definedName name="V_drive_be">'Design Calculations'!$B$35</definedName>
+    <definedName name="V_drive_zener">'Design Calculations'!$B$32</definedName>
+    <definedName name="V_in_adc">'Design Calculations'!$B$22</definedName>
+    <definedName name="V_logic_high">'Design Calculations'!$B$29</definedName>
+    <definedName name="V_max_adc">'Design Calculations'!$B$24</definedName>
+    <definedName name="V_oc_fast">'Design Calculations'!$B$58</definedName>
+    <definedName name="V_oc_fast_ref">'Design Calculations'!$B$62</definedName>
+    <definedName name="V_oc_hysteresis">'Design Calculations'!$B$49</definedName>
+    <definedName name="V_oc_slow">'Design Calculations'!$B$71</definedName>
+    <definedName name="V_oc_slow_ref">'Design Calculations'!$B$75</definedName>
+    <definedName name="V_oc_slow_thl">'Design Calculations'!$B$74</definedName>
+    <definedName name="V_oc_slow_tlh">'Design Calculations'!$B$73</definedName>
+    <definedName name="V_oc_top">'Design Calculations'!$B$47</definedName>
+    <definedName name="V_rp_gs">'Design Calculations'!$B$9</definedName>
     <definedName name="V_supply_max">'Design Calculations'!$B$3</definedName>
     <definedName name="V_supply_min">'Design Calculations'!$B$2</definedName>
-    <definedName name="V_uvlo">'Design Calculations'!$B$84</definedName>
-    <definedName name="V_uvlo_div_thl">'Design Calculations'!$B$91</definedName>
-    <definedName name="V_uvlo_div_tlh">'Design Calculations'!$B$90</definedName>
-    <definedName name="V_uvlo_hysteresis">'Design Calculations'!$B$86</definedName>
-    <definedName name="V_uvlo_oh">'Design Calculations'!$B$93</definedName>
-    <definedName name="V_uvlo_ref">'Design Calculations'!$B$95</definedName>
-    <definedName name="V_uvlo_top">'Design Calculations'!$B$89</definedName>
+    <definedName name="V_uvlo">'Design Calculations'!$B$91</definedName>
+    <definedName name="V_uvlo_div_thl">'Design Calculations'!$B$98</definedName>
+    <definedName name="V_uvlo_div_tlh">'Design Calculations'!$B$97</definedName>
+    <definedName name="V_uvlo_hysteresis">'Design Calculations'!$B$93</definedName>
+    <definedName name="V_uvlo_oh">'Design Calculations'!$B$100</definedName>
+    <definedName name="V_uvlo_ref">'Design Calculations'!$B$102</definedName>
+    <definedName name="V_uvlo_top">'Design Calculations'!$B$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -114,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="223">
   <si>
     <t>Symbol</t>
   </si>
@@ -705,6 +709,84 @@
   </si>
   <si>
     <t>Mohms</t>
+  </si>
+  <si>
+    <t>Reverse Polarity Protection</t>
+  </si>
+  <si>
+    <t>R_rp</t>
+  </si>
+  <si>
+    <t>V_rp,gs</t>
+  </si>
+  <si>
+    <t>Gate source voltage of PMOS in reverse polarity protection circuit.</t>
+  </si>
+  <si>
+    <t>Power dissipated in reverse polarity protection gate drive resistor.</t>
+  </si>
+  <si>
+    <t>I_rp,zener</t>
+  </si>
+  <si>
+    <t>P_rp,resistor</t>
+  </si>
+  <si>
+    <t>P_rp,zener</t>
+  </si>
+  <si>
+    <t>Current through reverse polarity protection zener diode with max supply voltage in nominal polarity.</t>
+  </si>
+  <si>
+    <t>Current Sense Amplifier</t>
+  </si>
+  <si>
+    <t>LTC6102HMS8#TRPBF</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/analog-devices-inc/LTC6102HMS8-TRPBF/1746369</t>
+  </si>
+  <si>
+    <t>Current sense shunt resistor value.</t>
+  </si>
+  <si>
+    <t>LTC6102 input resistor value.</t>
+  </si>
+  <si>
+    <t>LTC6102 output resistor value.</t>
+  </si>
+  <si>
+    <t>Divided undervoltage lockout threshold.</t>
+  </si>
+  <si>
+    <t>Non-Inverting Comparator with Hysteresis</t>
+  </si>
+  <si>
+    <t>Inverting Comparator with Hysteresis</t>
+  </si>
+  <si>
+    <t>T_THL</t>
+  </si>
+  <si>
+    <t>MCU Oscillator Crystal</t>
+  </si>
+  <si>
+    <t>FA-238 25.0000MB-K3</t>
+  </si>
+  <si>
+    <t>https://support.epson.biz/td/api/doc_check.php?dl=brief_FA-238&amp;lang=en</t>
+  </si>
+  <si>
+    <t>Polymer Capacitor</t>
+  </si>
+  <si>
+    <t>16SVPC100M</t>
+  </si>
+  <si>
+    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/AAB8000/AAB8000C256.pdf</t>
+  </si>
+  <si>
+    <t>Current sense voltage during nominal max current load.</t>
   </si>
 </sst>
 </file>
@@ -714,7 +796,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -784,7 +866,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -798,19 +880,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -878,14 +958,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>373634</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>168130</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>164320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1218,11 +1298,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442DB801-4B87-43B6-9EBA-E5E667A3881F}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A111" sqref="A111"/>
+      <selection pane="topRight" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1307,1107 +1387,1193 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(V_supply_max-V_rp_gs)/I_rp_zener</f>
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="1">
+        <f>(V_supply_max-V_rp_gs)^2/R_rp/1000</f>
+        <v>0.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="1">
+        <f>I_rp_zener*0.001*V_rp_gs</f>
+        <v>0.05</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="B9">
+      <c r="B16">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="D16" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B17" s="1">
         <f>R_csense*0.001*I_load_max</f>
         <v>0.01</v>
       </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B18" s="1">
         <f>B4*R_csense*0.001*1000000</f>
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B19">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
+      <c r="D19" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="8">
-        <f>V_csense_max/B12*1000</f>
+      <c r="B20" s="8">
+        <f>V_csense_max/B19*1000</f>
         <v>0.29411764705882354</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B21">
         <v>4.99</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
+      <c r="D21" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B22" s="7">
         <f>I_rin_max*R_out</f>
         <v>1.4676470588235295</v>
       </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B24">
         <v>3.3</v>
       </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B25" s="3">
         <f>I_load_max/(V_in_adc/V_max_adc*2^N_bits_adc)*1000</f>
         <v>5.4894946142284553</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B26" s="8">
         <f>R_csense*0.001/R_in*R_out*1000</f>
         <v>0.14676470588235294</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C26" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="2" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="2" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>3.3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26">
-        <v>0.05</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1">
-        <f>B26/B25*1000</f>
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28">
-        <v>0.8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>3.3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33">
+        <v>0.05</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="1">
+        <f>B33/B32*1000</f>
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B36" s="1">
         <f>(V_logic_high-V_drive_be)/I_drive_zener*1000</f>
         <v>500</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="1">
-        <f>B30*(I_drive_zener*0.001)^2</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="1">
-        <f>V_supply_max-I_drive_zener*0.001*(B29+B30)</f>
-        <v>56.5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33" s="1">
-        <f>B32*I_drive_zener*0.001</f>
-        <v>0.28250000000000003</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" t="s">
-        <v>154</v>
-      </c>
-      <c r="B34" s="1">
-        <f>V_logic_high+B30*I_drive_zener*0.001</f>
-        <v>4.3</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="15">
-        <v>4.8000000000000001E-2</v>
-      </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="15">
-        <f>I_load_max^2*B36</f>
-        <v>4.8</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
       </c>
       <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="1">
+        <f>B37*(I_drive_zener*0.001)^2</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C38" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>162</v>
+      <c r="D38" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2" t="s">
-        <v>31</v>
+      <c r="A39" t="s">
+        <v>152</v>
+      </c>
+      <c r="B39" s="1">
+        <f>V_supply_max-I_drive_zener*0.001*(B36+B37)-V_drive_zener</f>
+        <v>46.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B39*I_drive_zener*0.001</f>
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="1">
+        <f>V_logic_high+B37*I_drive_zener*0.001</f>
+        <v>4.3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44">
+        <f>I_load_max^2*B43</f>
+        <v>4.8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
         <v>179</v>
       </c>
-      <c r="B40">
-        <v>5</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B41" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="7">
-        <f>A_csense*B41</f>
-        <v>7.3382352941176468E-2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43">
-        <v>5</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B44">
-        <v>10</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B46" s="4">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="7">
+        <f>A_csense*B48</f>
+        <v>7.3382352941176468E-2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B55" s="1">
         <f>t_rise_oc_fast/(C_oc_fast*0.000001)</f>
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C55" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
         <v>49</v>
       </c>
-      <c r="B49">
+      <c r="B56">
         <v>300</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C56" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B57" s="1">
         <f>CR_oc_fast/100*I_load_max</f>
         <v>30</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C57" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D57" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B58" s="7">
         <f>A_csense*I_oc_fast</f>
         <v>4.4029411764705877</v>
       </c>
-      <c r="C51" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" t="s">
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
         <v>95</v>
       </c>
-      <c r="B52">
+      <c r="B59">
         <v>1</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C59" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D59" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="7">
-        <f>V_oc_fast+B42</f>
+      <c r="B60" s="7">
+        <f>V_oc_fast+B49</f>
         <v>4.476323529411764</v>
       </c>
-      <c r="C53" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="7">
-        <f>V_oc_fast-B42</f>
+      <c r="B61" s="7">
+        <f>V_oc_fast-B49</f>
         <v>4.3295588235294113</v>
       </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" t="s">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="7">
-        <f>B53/(1+B52/B56)</f>
+      <c r="B62" s="7">
+        <f>B60/(1+B59/B63)</f>
         <v>4.3486770672609856</v>
       </c>
-      <c r="C55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" t="s">
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
         <v>94</v>
       </c>
-      <c r="B56" s="10">
-        <f>B43/(B53-B54)*B52</f>
+      <c r="B63" s="10">
+        <f>B50/(B60-B61)*B59</f>
         <v>34.068136272545146</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C63" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="6" t="s">
+      <c r="D63" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" t="s">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B64" s="3">
         <f>V_oc_fast_ref*R_oc_ref_top/(V_oc_top-V_oc_fast_ref)</f>
         <v>66.766834832199962</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C64" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="6" t="s">
+      <c r="D64" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="12" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="9"/>
-    </row>
-    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" t="s">
+      <c r="B65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="B59">
+      <c r="B66">
         <v>20</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C66" t="s">
         <v>35</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
         <v>43</v>
       </c>
-      <c r="B60">
+      <c r="B67">
         <v>100</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
         <v>38</v>
       </c>
-      <c r="B61" s="1" cm="1">
-        <f t="array" ref="B61">t_rise_oc_slow/(C_oc_slow*0.000001)/1000</f>
+      <c r="B68" s="1" cm="1">
+        <f t="array" ref="B68">t_rise_oc_slow/(C_oc_slow*0.000001)/1000</f>
         <v>200.00000000000003</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
         <v>50</v>
       </c>
-      <c r="B62">
+      <c r="B69">
         <v>150</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C69" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D69" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B70" s="1">
         <f>CR_oc_slow/100*I_load_max</f>
         <v>15</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D70" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="7" cm="1">
-        <f t="array" ref="B64">A_csense*I_oc_slow</f>
+      <c r="B71" s="7" cm="1">
+        <f t="array" ref="B71">A_csense*I_oc_slow</f>
         <v>2.2014705882352938</v>
       </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" t="s">
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
         <v>103</v>
       </c>
-      <c r="B65">
+      <c r="B72">
         <v>1</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C72" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" t="s">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="7">
-        <f>V_oc_slow+B42</f>
+      <c r="B73" s="7">
+        <f>V_oc_slow+B49</f>
         <v>2.2748529411764702</v>
       </c>
-      <c r="C66" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" t="s">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
         <v>106</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B74" s="7">
         <f>V_oc_slow-V_oc_hysteresis</f>
         <v>2.1280882352941175</v>
       </c>
-      <c r="C67" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="7">
-        <f>V_oc_slow_tlh/(1+B65/B69)</f>
+      <c r="B75" s="7">
+        <f>V_oc_slow_tlh/(1+B72/B76)</f>
         <v>2.2005847958671563</v>
       </c>
-      <c r="C68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" t="s">
+      <c r="C75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="10">
-        <f>B55/(B66-B67)*B65</f>
+      <c r="B76" s="10">
+        <f>B62/(B73-B74)*B72</f>
         <v>29.630264586547849</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C76" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D76" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" t="s">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
         <v>65</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B77" s="3">
         <f>V_oc_slow_ref*R_oc_ref_top/(V_oc_top-V_oc_slow_ref)</f>
         <v>7.8608732017257754</v>
       </c>
-      <c r="C70" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" t="s">
-        <v>167</v>
-      </c>
-      <c r="B76">
-        <v>19</v>
-      </c>
-      <c r="C76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" t="s">
-        <v>168</v>
-      </c>
-      <c r="B77" s="13">
-        <v>1</v>
-      </c>
       <c r="C77" t="s">
         <v>16</v>
       </c>
       <c r="D77" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="12">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
         <v>169</v>
       </c>
-      <c r="B78">
-        <v>0.1</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
         <v>36</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D85" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
         <v>170</v>
       </c>
-      <c r="B79" s="7">
+      <c r="B86" s="8">
         <f>(R_vsense_top-R_vsense_bot)*1000/(2*PI()*R_vsense_top*C_vsense*R_vsense_bot)/1000</f>
-        <v>1.5077836713969033</v>
-      </c>
-      <c r="C79" t="s">
+        <v>0.15077836713969034</v>
+      </c>
+      <c r="C86" t="s">
         <v>32</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D86" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
         <v>171</v>
       </c>
-      <c r="B80" s="7">
+      <c r="B87" s="7">
         <f>R_vsense_bot/(R_vsense_bot+R_vsense_top)</f>
         <v>0.05</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C87" t="s">
         <v>116</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" t="s">
+    <row r="88" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
         <v>172</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B88" s="9">
         <v>2.1</v>
       </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="9"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="12" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" t="s">
+    <row r="91" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
         <v>134</v>
       </c>
-      <c r="B84">
+      <c r="B91">
         <v>11</v>
       </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="6" t="s">
+      <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B92" s="1">
         <f>V_uvlo*A_vsense</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" t="s">
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
         <v>173</v>
       </c>
-      <c r="B86">
+      <c r="B93">
         <v>1</v>
       </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
         <v>180</v>
       </c>
-      <c r="B89">
-        <v>5</v>
-      </c>
-      <c r="C89" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="6" t="s">
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" t="s">
+    <row r="97" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
         <v>175</v>
       </c>
-      <c r="B90">
-        <f>B85+A_vsense*B86</f>
+      <c r="B97">
+        <f>B92+A_vsense*B93</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="C90" t="s">
-        <v>5</v>
-      </c>
-      <c r="D90" s="6" t="s">
+      <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" t="s">
+    <row r="98" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
         <v>176</v>
       </c>
-      <c r="B91">
-        <f>B85-A_vsense*B86</f>
+      <c r="B98">
+        <f>B92-A_vsense*B93</f>
         <v>0.5</v>
       </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
         <v>182</v>
       </c>
-      <c r="B92">
+      <c r="B99">
         <v>1</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C99" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
         <v>183</v>
       </c>
-      <c r="B93">
-        <v>5</v>
-      </c>
-      <c r="C93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" t="s">
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="1">
-        <f>V_uvlo_oh/(V_uvlo_div_tlh-V_uvlo_div_thl)*B92</f>
+      <c r="B101" s="1">
+        <f>V_uvlo_oh/(V_uvlo_div_tlh-V_uvlo_div_thl)*B99</f>
         <v>49.999999999999957</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C101" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" t="s">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
         <v>185</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B102" s="7">
         <f>V_uvlo_div_tlh/(1+R_uvlo_in/R_uvlo_f)</f>
         <v>0.58823529411764719</v>
       </c>
-      <c r="C95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" t="s">
+      <c r="C102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="7">
-        <f>B95*(1+B92/B94)</f>
+      <c r="B103" s="7">
+        <f>B102*(1+B99/B101)</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="C96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" t="s">
+      <c r="C103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
         <v>86</v>
       </c>
-      <c r="B97" s="1">
-        <f>B95*(1+B92/B94)-B93*B92/B94</f>
+      <c r="B104" s="1">
+        <f>B102*(1+B99/B101)-B100*B99/B101</f>
         <v>0.5</v>
       </c>
-      <c r="C97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" t="s">
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
         <v>186</v>
       </c>
-      <c r="B98">
+      <c r="B105">
         <v>10</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C105" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
         <v>187</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B106" s="3">
         <f>V_uvlo_ref*R_uvlo_ref_top/(V_uvlo_top-V_uvlo_ref)</f>
         <v>1.3333333333333335</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C106" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="2" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
         <v>189</v>
       </c>
-      <c r="B102">
+      <c r="B109">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C109" t="s">
         <v>35</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="D109" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
         <v>191</v>
       </c>
-      <c r="B103">
+      <c r="B110">
         <v>10</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C110" t="s">
         <v>196</v>
       </c>
-      <c r="D103" s="6" t="s">
+      <c r="D110" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" t="s">
         <v>194</v>
       </c>
-      <c r="B104">
+      <c r="B111" s="1">
         <f>T_fault_latch/(R_fault_latch*1000000)/0.000000001</f>
         <v>99.999999999999986</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C111" t="s">
         <v>195</v>
       </c>
-      <c r="D104" s="6" t="s">
+      <c r="D111" s="6" t="s">
         <v>193</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B44">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
-      <formula>$B$23</formula>
+      <formula>$B$30</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
-      <formula>$B$23</formula>
+      <formula>$B$30</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2417,13 +2583,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19925F0-73E3-4C1C-846F-915A7EB69028}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2448,96 +2614,92 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <f>0.6*5</f>
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="1">
-        <f>B5/(B2-B3)*B4</f>
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="7">
-        <f>B2/(1+B4/B6)</f>
-        <v>2.5</v>
+        <v>83</v>
+      </c>
+      <c r="B7" s="1">
+        <f>B6/(B3-B4)*B5</f>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="1">
-        <f>B7*(1+B4/B6)</f>
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="B8" s="7">
+        <f>B3/(1+B5/B7)</f>
+        <v>2.5</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2545,14 +2707,117 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="1">
+        <f>B8*(1+B5/B7)</f>
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="1">
-        <f>B7*(1+B4/B6)-B5*B4/B6</f>
+      <c r="B10" s="1">
+        <f>B8*(1+B5/B7)-B6*B5/B7</f>
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>5</v>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="1">
+        <f>B15*(B16/(B14-B13)-1)</f>
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="1">
+        <f>B13/(1-B15/(B15+B17))</f>
+        <v>2.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="1">
+        <f>-B18/(B15+B17)*B15+B18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1">
+        <f>(B16-B18)/(B15+B17)*B15+B18</f>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2564,13 +2829,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF357E17-D3F4-4812-80A2-B91D4A4794D4}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2579,7 +2844,6 @@
     <col min="2" max="2" width="25.3125" customWidth="1"/>
     <col min="3" max="3" width="18.3125" customWidth="1"/>
     <col min="4" max="4" width="18.41796875" customWidth="1"/>
-    <col min="5" max="5" width="8.83984375" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2595,7 +2859,7 @@
       <c r="D1" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" t="s">
         <v>121</v>
       </c>
       <c r="F1" t="s">
@@ -2603,10 +2867,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="16"/>
       <c r="C2">
         <v>-40</v>
       </c>
@@ -2627,7 +2891,7 @@
       <c r="D3">
         <v>85</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>124</v>
       </c>
       <c r="F3" t="s">
@@ -2647,7 +2911,7 @@
       <c r="D4">
         <v>85</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2664,7 +2928,7 @@
       <c r="D5">
         <v>85</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2681,7 +2945,7 @@
       <c r="D6">
         <v>175</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="13" t="s">
         <v>137</v>
       </c>
       <c r="F6" t="s">
@@ -2701,10 +2965,9 @@
       <c r="D7">
         <v>150</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -2719,8 +2982,59 @@
       <c r="D8">
         <v>150</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="13" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>207</v>
+      </c>
+      <c r="C9">
+        <v>-40</v>
+      </c>
+      <c r="D9">
+        <v>125</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10">
+        <v>-40</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11">
+        <v>-55</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2742,6 +3056,10 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{E68E9C99-54DA-4CA4-A24D-6AF2E144C87F}"/>
     <hyperlink ref="E6" r:id="rId3" xr:uid="{FC46DADA-7C4B-4E81-8C15-ACF9CC1F7CF3}"/>
     <hyperlink ref="E7" r:id="rId4" xr:uid="{76D1A70D-49D4-40A6-8BB1-AAF7DE8ABE28}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{30C4B4BF-1ED3-4257-A511-106525FD247F}"/>
+    <hyperlink ref="E9" r:id="rId6" xr:uid="{1F8B63FF-9BE2-4A1D-B20C-B48613A5B191}"/>
+    <hyperlink ref="E10" r:id="rId7" xr:uid="{8F97ED7C-5F96-44F2-BB5D-27A6DA2BC985}"/>
+    <hyperlink ref="E11" r:id="rId8" xr:uid="{D94A6FAC-B3E9-4479-A04C-26CD4B2EB12C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
